--- a/medicine/Mort/Cimetière_du_Centre_de_Mont-de-Marsan/Cimetière_du_Centre_de_Mont-de-Marsan.xlsx
+++ b/medicine/Mort/Cimetière_du_Centre_de_Mont-de-Marsan/Cimetière_du_Centre_de_Mont-de-Marsan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_Centre_de_Mont-de-Marsan</t>
+          <t>Cimetière_du_Centre_de_Mont-de-Marsan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière du Centre est le cimetière principal de Mont-de-Marsan dans le département des Landes[1]. Il se trouve boulevard d'Haussez[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière du Centre est le cimetière principal de Mont-de-Marsan dans le département des Landes. Il se trouve boulevard d'Haussez.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_Centre_de_Mont-de-Marsan</t>
+          <t>Cimetière_du_Centre_de_Mont-de-Marsan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,17 +523,159 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le cimetière du Centre se situe 44 boulevard d'Haussez, au nord de l'église de Saint-Jean-d'Août, sur la rive droite de la Douze. Il est accessible par la rue du Cimetière, qui relie le boulevard d'Haussez à l'entrée principale, côté est[3].
-Nom
-Son nom de cimetière du Centre provient de la nécessité, après la fusions des communes de Saint-Jean-d'Août-et-Nonères et Saint-Médard-de-Beausse avec Mont-de-Marsan en 1866[n 1], de faire la distinction avec le cimetière de Saint-Médard[3].
-Histoire
-Les nouvelles lois issues de la Révolution française font obligation à la commune de Mont-de-Marsan, promue chef-lieu de département par un vote de l'Assemblée nationale du 12 janvier 1790, de déplacer son cimetière en dehors des limites de la ville. A cette fin, la municipalité fait l'acquisition en 1791 d'un terrain à Saint-Jean-d'Août[n 2], qui est alors une commune autonome riveraine, mais faute de moyen, les aménagements du nouveau cimetière ne débutent qu'en 1794 avec l'édification de la clôture[4]. Un bilan d'activité du maire de 1809 rapporte que le mur est achevé et que les travaux d'aménagement du cimetière se poursuivent[5]. Après l'acquisition du terrain en 1791, des extensions successives ont lieu : en 1841, 1845, 1899, 1923 et 1936, cette dernière concernant un élargissement vers le sur un bandeau de 2 m de largeur afin de réaménager l'entrée principale et de construire le porche[3].
-Description
-Ce grand cimetière plat et bien entretenu présente une superficie de 27 979 m², faisant de lui l'un des plus étendus des cimetières de la commune[3]. Il possède un patrimoine artistique et historique intéressant. Nombreuses sont les personnalités locales et la partie ancienne du cimetière est bien préservée. On y remarque des tombes de hauts gradés français rappelant la vocation militaire de la ville, mais également d'artistes, d'aviateurs et de personnalités politiques. Une stèle en mémoire des Polonais du XIXe siècle en exil est érigée ici. Les prêtres de Mont-de-Marsan sont honorés par une haute colonne surmontée d'une croix. Quelques allées sont bordées d'arbres.
-Personnalités inhumées
-Henri Castelnau (1814-1890), général, aide de camp de Napoléon III, participant de l'expédition du Mexique ;
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière du Centre se situe 44 boulevard d'Haussez, au nord de l'église de Saint-Jean-d'Août, sur la rive droite de la Douze. Il est accessible par la rue du Cimetière, qui relie le boulevard d'Haussez à l'entrée principale, côté est.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cimetière_du_Centre_de_Mont-de-Marsan</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_du_Centre_de_Mont-de-Marsan</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Nom</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom de cimetière du Centre provient de la nécessité, après la fusions des communes de Saint-Jean-d'Août-et-Nonères et Saint-Médard-de-Beausse avec Mont-de-Marsan en 1866[n 1], de faire la distinction avec le cimetière de Saint-Médard.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cimetière_du_Centre_de_Mont-de-Marsan</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_du_Centre_de_Mont-de-Marsan</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les nouvelles lois issues de la Révolution française font obligation à la commune de Mont-de-Marsan, promue chef-lieu de département par un vote de l'Assemblée nationale du 12 janvier 1790, de déplacer son cimetière en dehors des limites de la ville. A cette fin, la municipalité fait l'acquisition en 1791 d'un terrain à Saint-Jean-d'Août[n 2], qui est alors une commune autonome riveraine, mais faute de moyen, les aménagements du nouveau cimetière ne débutent qu'en 1794 avec l'édification de la clôture. Un bilan d'activité du maire de 1809 rapporte que le mur est achevé et que les travaux d'aménagement du cimetière se poursuivent. Après l'acquisition du terrain en 1791, des extensions successives ont lieu : en 1841, 1845, 1899, 1923 et 1936, cette dernière concernant un élargissement vers le sur un bandeau de 2 m de largeur afin de réaménager l'entrée principale et de construire le porche.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cimetière_du_Centre_de_Mont-de-Marsan</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_du_Centre_de_Mont-de-Marsan</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce grand cimetière plat et bien entretenu présente une superficie de 27 979 m², faisant de lui l'un des plus étendus des cimetières de la commune. Il possède un patrimoine artistique et historique intéressant. Nombreuses sont les personnalités locales et la partie ancienne du cimetière est bien préservée. On y remarque des tombes de hauts gradés français rappelant la vocation militaire de la ville, mais également d'artistes, d'aviateurs et de personnalités politiques. Une stèle en mémoire des Polonais du XIXe siècle en exil est érigée ici. Les prêtres de Mont-de-Marsan sont honorés par une haute colonne surmontée d'une croix. Quelques allées sont bordées d'arbres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cimetière_du_Centre_de_Mont-de-Marsan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_du_Centre_de_Mont-de-Marsan</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Henri Castelnau (1814-1890), général, aide de camp de Napoléon III, participant de l'expédition du Mexique ;
 Cel le Gaucher (né Marcel Canguilhem, 1895-1949), dessinateur et sculpteur (auteur de plusieurs médaillons du cimetière) ;
 Pierre Couzin (1775-1845), baron d'Empire, officier et maire de Mont-de-Marsan (haute colonne surmontée d'une urne)
 Marcel David (1895-1979), maire de Mont-de-Marsan et député socialiste des Landes ;
@@ -535,10 +689,10 @@
 Jacques Pills (né René Ducos, 1906-1970), chanteur qui fut l'époux de Lucienne Boyer ;
 Francis Planté (1839-1934), pianiste ;
 Roger Ronserail (1894-1925), aviateur ;
-Jean Henri Tayan (1855-1931), peintre paysagiste local, transféré du cimetière de l'hôpital Sainte-Anne[1]
+Jean Henri Tayan (1855-1931), peintre paysagiste local, transféré du cimetière de l'hôpital Sainte-Anne
 Seconde Guerre mondiale
-adjudant René Darbins : né le 1er octobre 1920 à Mont-de-Marsan, mort aux commandes de son Spitfire le 19 août 1942 à l'âge de 21 ans lors du raid de Dieppe[6] ;
-capitaine Thomas Mellows de l'armée canadienne, mort lors de la bataille du pont de Bats le 21 août 1944, dernier combat ayant permis la libération de Mont-de-Marsan[6].</t>
+adjudant René Darbins : né le 1er octobre 1920 à Mont-de-Marsan, mort aux commandes de son Spitfire le 19 août 1942 à l'âge de 21 ans lors du raid de Dieppe ;
+capitaine Thomas Mellows de l'armée canadienne, mort lors de la bataille du pont de Bats le 21 août 1944, dernier combat ayant permis la libération de Mont-de-Marsan.</t>
         </is>
       </c>
     </row>
